--- a/ozone/multistate/ANO-RCC-VTZP/ozone_113.00/ozone_113.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_113.00/ozone_113.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7915132992</v>
+        <v>-0.5605056207</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.50896597</v>
+        <v>-224.7368393</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.30047927</v>
+        <v>-225.29734492</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5121314332</v>
+        <v>-224.5121314331</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7264534279</v>
+        <v>-0.5691547179999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49974531</v>
+        <v>-224.66295603</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.22619874</v>
+        <v>-225.23211075</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5121314332</v>
+        <v>-224.5121314331</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8399547512</v>
+        <v>-0.5722913108</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42679371</v>
+        <v>-224.6457806</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26674846</v>
+        <v>-225.21807191</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5121314332</v>
+        <v>-224.5121314331</v>
       </c>
     </row>
   </sheetData>
